--- a/agriculture 52.xlsx
+++ b/agriculture 52.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\Downloads\ODL Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{896D6484-3B45-4D48-B84C-137FA4AF7FC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3108A27-C946-45FF-9141-7D457C640383}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{DEC2EDD4-86D3-400F-9961-0B17922DDC88}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{358D8474-5306-488B-95D9-45CE2CDDCB6B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="1" r:id="rId1"/>
@@ -547,11 +547,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3738BBE0-2EA7-491F-93F6-128731B41B21}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F961B31-F4B0-46DC-98AB-D920D412B0CA}">
   <dimension ref="A1:AA21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A29" activeCellId="7" sqref="A1:XFD2 A23:XFD23 A24:XFD24 A25:XFD25 A26:XFD26 A27:XFD27 A28:XFD28 A29:XFD29"/>
+      <selection activeCell="A29" activeCellId="7" sqref="A1:XFD1 A23:XFD23 A24:XFD24 A25:XFD25 A26:XFD26 A27:XFD27 A28:XFD28 A29:XFD29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -2068,20 +2068,20 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="T1:U1"/>
-    <mergeCell ref="V1:W1"/>
-    <mergeCell ref="X1:Y1"/>
-    <mergeCell ref="Z1:AA1"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="H1:I1"/>
     <mergeCell ref="J1:K1"/>
     <mergeCell ref="L1:M1"/>
     <mergeCell ref="N1:O1"/>
     <mergeCell ref="P1:Q1"/>
     <mergeCell ref="R1:S1"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="T1:U1"/>
+    <mergeCell ref="V1:W1"/>
+    <mergeCell ref="X1:Y1"/>
+    <mergeCell ref="Z1:AA1"/>
   </mergeCells>
   <pageMargins left="0" right="0" top="0.39370078740157483" bottom="0.39370078740157483" header="0" footer="0"/>
   <headerFooter>
